--- a/src/main/resources/api_v4.xlsx
+++ b/src/main/resources/api_v4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="apiInfo" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>wenhuijuan</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://hc-t1.yonghuivip.com/signin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,14 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apiId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>requestParams</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"username":"admin","password":"123456a"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,23 +74,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>expectedResponseData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"username":"123334","password":"112222"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>requestMethod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apiId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apiName</t>
+    <t>CaseId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApiId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestParams</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpectedResponseData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApiName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestMethod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Url</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -520,16 +520,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -537,13 +537,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -551,13 +551,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -591,51 +591,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" customWidth="1"/>
+    <col min="3" max="3" width="52" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
